--- a/src/main/java/com/example/notthefinalproject/Competitions Participations.xlsx
+++ b/src/main/java/com/example/notthefinalproject/Competitions Participations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Competition Name</t>
   </si>
@@ -43,6 +43,12 @@
     <t>Major</t>
   </si>
   <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>Team Name</t>
+  </si>
+  <si>
     <t>Rank</t>
   </si>
   <si>
@@ -52,64 +58,73 @@
     <t>CS</t>
   </si>
   <si>
+    <t>SuperDevops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0 </t>
+  </si>
+  <si>
+    <t>Naif Essam</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Majed Ahmad</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>StackUnderflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.0 </t>
+  </si>
+  <si>
+    <t>Saleh Mohammed</t>
+  </si>
+  <si>
+    <t>CyberuHub</t>
+  </si>
+  <si>
+    <t>https://twitter.com/CyberhubSa</t>
+  </si>
+  <si>
+    <t>2021-10-06</t>
+  </si>
+  <si>
+    <t>Ahmad Mohammed</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.0 </t>
   </si>
   <si>
-    <t>Naif Essam</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>Majed Ahmad</t>
-  </si>
-  <si>
-    <t>COE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.0 </t>
-  </si>
-  <si>
-    <t>Saleh Mohammed</t>
-  </si>
-  <si>
-    <t>CyberuHub</t>
-  </si>
-  <si>
-    <t>https://twitter.com/CyberhubSa</t>
+    <t>Abdullah Ali</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Abdulaziz fawwaz</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0 </t>
+  </si>
+  <si>
+    <t>Faris Ahmad</t>
+  </si>
+  <si>
+    <t>NawafComp</t>
   </si>
   <si>
     <t>2021-10-02</t>
-  </si>
-  <si>
-    <t>Ahmad Mohammed</t>
-  </si>
-  <si>
-    <t>Abdullah Ali</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Abdulaziz fawwaz</t>
-  </si>
-  <si>
-    <t>MIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0 </t>
-  </si>
-  <si>
-    <t>Faris Ahmad</t>
-  </si>
-  <si>
-    <t>NawafComp</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
   </si>
   <si>
     <t>Nawaf Alomari</t>
@@ -176,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -186,7 +201,8 @@
     <col min="2" max="2" width="38.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="16.765625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.42578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.4765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="14.81640625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -214,6 +230,7 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -225,6 +242,12 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -235,13 +258,19 @@
         <v>2.2224386E8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -252,13 +281,19 @@
         <v>2.2224656E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>12</v>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -269,13 +304,19 @@
         <v>2.2221926E8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -286,13 +327,19 @@
         <v>2.222675E8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -320,7 +367,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
@@ -328,7 +375,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -336,10 +383,11 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -350,7 +398,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -361,13 +409,13 @@
         <v>2.2225386E8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -378,13 +426,13 @@
         <v>2.2225656E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -395,13 +443,13 @@
         <v>2.2227926E8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -412,13 +460,13 @@
         <v>2.222567E8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -446,7 +494,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -454,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -462,10 +510,11 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5">
+      <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
@@ -476,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -487,13 +536,13 @@
         <v>2.2225386E8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -504,13 +553,13 @@
         <v>2.2225656E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -521,13 +570,13 @@
         <v>2.2227926E8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -538,13 +587,13 @@
         <v>2.222567E8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/example/notthefinalproject/Competitions Participations.xlsx
+++ b/src/main/java/com/example/notthefinalproject/Competitions Participations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>Competition Name</t>
   </si>
@@ -70,6 +70,9 @@
     <t>SWE</t>
   </si>
   <si>
+    <t>Nawaf Alomari</t>
+  </si>
+  <si>
     <t>Majed Ahmad</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>2021-10-02</t>
-  </si>
-  <si>
-    <t>Nawaf Alomari</t>
   </si>
 </sst>
 </file>
@@ -191,7 +191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -301,22 +301,22 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2.2221926E8</v>
+        <v>2.0193105E8</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
@@ -324,22 +324,45 @@
         <v>4.0</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2.222675E8</v>
+        <v>2.2221926E8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" s="1" t="n">
         <v>2.0</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.222675E8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="E10" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -367,7 +390,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2">
@@ -375,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -383,7 +406,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -409,13 +432,13 @@
         <v>2.2225386E8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -426,13 +449,13 @@
         <v>2.2225656E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -443,13 +466,13 @@
         <v>2.2227926E8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -460,13 +483,13 @@
         <v>2.222567E8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -494,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -502,7 +525,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -536,13 +559,13 @@
         <v>2.2225386E8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +576,13 @@
         <v>2.2225656E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +593,13 @@
         <v>2.2227926E8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +610,13 @@
         <v>2.222567E8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/com/example/notthefinalproject/Competitions Participations.xlsx
+++ b/src/main/java/com/example/notthefinalproject/Competitions Participations.xlsx
@@ -6,41 +6,253 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="AIoT Hackathon with stc" r:id="rId3" sheetId="1"/>
-    <sheet name="CyberuHub" r:id="rId4" sheetId="2"/>
-    <sheet name="NawafComp" r:id="rId5" sheetId="3"/>
+    <sheet name="Zoo Hackaton" r:id="rId3" sheetId="1"/>
+    <sheet name="AIoT Hackathon with stc" r:id="rId4" sheetId="2"/>
+    <sheet name="CyberuHub" r:id="rId5" sheetId="3"/>
+    <sheet name="Future Disruptors 2022" r:id="rId6" sheetId="4"/>
+    <sheet name="SomeTeamComp" r:id="rId7" sheetId="5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="88">
   <si>
     <t>Competition Name</t>
   </si>
   <si>
+    <t>Zoo Hackaton</t>
+  </si>
+  <si>
+    <t>Competition Link</t>
+  </si>
+  <si>
+    <t>http://www.saudizoohackathon.org/</t>
+  </si>
+  <si>
+    <t>competition date</t>
+  </si>
+  <si>
+    <t>2021-10-27</t>
+  </si>
+  <si>
+    <t>Student ID</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>khaldoon parvez</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 </t>
+  </si>
+  <si>
+    <t>maimun ghassan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATH </t>
+  </si>
+  <si>
+    <t>raihan safiyallah</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>shurahbeel hafid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0 </t>
+  </si>
+  <si>
+    <t>tahoor shamsideen</t>
+  </si>
+  <si>
+    <t>COE</t>
+  </si>
+  <si>
+    <t>abdulmubdee jamalaldin</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>muttee daniyal</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0 </t>
+  </si>
+  <si>
+    <t>abdulbaith moemen</t>
+  </si>
+  <si>
+    <t>raja shaaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0 </t>
+  </si>
+  <si>
+    <t>halim mansur</t>
+  </si>
+  <si>
     <t>AIoT Hackathon with stc</t>
   </si>
   <si>
-    <t>Competition Link</t>
-  </si>
-  <si>
     <t>https://ultrahack.org/aiot-hackathon-stc</t>
   </si>
   <si>
-    <t>competition date</t>
-  </si>
-  <si>
     <t>2021-10-12</t>
   </si>
   <si>
-    <t>Student ID</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
-    <t>Major</t>
+    <t>abidin mashhood</t>
+  </si>
+  <si>
+    <t>abdullah aqeil</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>abualkhayr shibli</t>
+  </si>
+  <si>
+    <t>shahan fayek</t>
+  </si>
+  <si>
+    <t>manzoor abdussubbooh</t>
+  </si>
+  <si>
+    <t>wafeeq rukanah</t>
+  </si>
+  <si>
+    <t>fath darwish</t>
+  </si>
+  <si>
+    <t>MIS</t>
+  </si>
+  <si>
+    <t>rakeem sajid</t>
+  </si>
+  <si>
+    <t>adl nashat</t>
+  </si>
+  <si>
+    <t>kareef khushtar</t>
+  </si>
+  <si>
+    <t>CyberuHub</t>
+  </si>
+  <si>
+    <t>https://twitter.com/CyberhubSa</t>
+  </si>
+  <si>
+    <t>2021-10-02</t>
+  </si>
+  <si>
+    <t>anees shammyn</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ajmal budail</t>
+  </si>
+  <si>
+    <t>sawad noraiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0 </t>
+  </si>
+  <si>
+    <t>yaqeen qays</t>
+  </si>
+  <si>
+    <t>rafid muhannad</t>
+  </si>
+  <si>
+    <t>ubadah mutawalli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.0 </t>
+  </si>
+  <si>
+    <t>imaad sabir</t>
+  </si>
+  <si>
+    <t>saffar abdullah</t>
+  </si>
+  <si>
+    <t>usama fawwaz</t>
+  </si>
+  <si>
+    <t>anasah suud</t>
+  </si>
+  <si>
+    <t>Future Disruptors 2022</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/software-ag/posts/</t>
+  </si>
+  <si>
+    <t>2022-02-03</t>
+  </si>
+  <si>
+    <t>farooq jauhar</t>
+  </si>
+  <si>
+    <t>juhaym waail</t>
+  </si>
+  <si>
+    <t>raja sadan</t>
+  </si>
+  <si>
+    <t>abdulmutaal abdulmannan</t>
+  </si>
+  <si>
+    <t>mustaqeem yazid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SWE </t>
+  </si>
+  <si>
+    <t>thamer ubaydah</t>
+  </si>
+  <si>
+    <t>amam raashid</t>
+  </si>
+  <si>
+    <t>tajammal jubair</t>
+  </si>
+  <si>
+    <t>hudhafah kaliq</t>
+  </si>
+  <si>
+    <t>kharijah abdulkareem</t>
+  </si>
+  <si>
+    <t>SomeTeamComp</t>
+  </si>
+  <si>
+    <t>https://jareed.net</t>
+  </si>
+  <si>
+    <t>2021-12-08</t>
   </si>
   <si>
     <t>team</t>
@@ -49,85 +261,25 @@
     <t>Team Name</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Bassel Alqahtani</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>SuperDevops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.0 </t>
-  </si>
-  <si>
-    <t>Naif Essam</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
     <t>Nawaf Alomari</t>
   </si>
   <si>
-    <t>Majed Ahmad</t>
-  </si>
-  <si>
-    <t>COE</t>
-  </si>
-  <si>
-    <t>StackUnderflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.0 </t>
-  </si>
-  <si>
-    <t>Saleh Mohammed</t>
-  </si>
-  <si>
-    <t>CyberuHub</t>
-  </si>
-  <si>
-    <t>https://twitter.com/CyberhubSa</t>
-  </si>
-  <si>
-    <t>2021-10-06</t>
-  </si>
-  <si>
-    <t>Ahmad Mohammed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.0 </t>
-  </si>
-  <si>
-    <t>Abdullah Ali</t>
-  </si>
-  <si>
-    <t>EE</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Abdulaziz fawwaz</t>
-  </si>
-  <si>
-    <t>MIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.0 </t>
-  </si>
-  <si>
-    <t>Faris Ahmad</t>
-  </si>
-  <si>
-    <t>NawafComp</t>
-  </si>
-  <si>
-    <t>2021-10-02</t>
+    <t>FirstTeam</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Hadi Almarzooq</t>
+  </si>
+  <si>
+    <t>Mohammed Almohammed</t>
+  </si>
+  <si>
+    <t>TeamTwo</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -191,18 +343,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.27734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.765625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.4765625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="14.81640625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.0" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.97265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -243,34 +394,22 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2.2224386E8</v>
+        <v>2.0232973E8</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -278,22 +417,16 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2.2224656E8</v>
+        <v>2.023708E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -301,22 +434,16 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2.0193105E8</v>
+        <v>2.0232871E8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -324,22 +451,16 @@
         <v>4.0</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2.2221926E8</v>
+        <v>2.0235296E8</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10">
@@ -347,22 +468,101 @@
         <v>5.0</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>2.222675E8</v>
+        <v>2.0238912E8</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.0238738E8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2.0232381E8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2.0234933E8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>22</v>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2.0235847E8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2.02316E8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -372,7 +572,236 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.27734375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.703125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.97265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2.0243022E8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2.0248529E8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2.0241258E8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.0243771E8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.0246556E8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.0246991E8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2.0243913E8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2.0249074E8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2.0246131E8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2.0247385E8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -380,7 +809,236 @@
   <cols>
     <col min="1" max="1" width="17.69921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="29.81640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.79296875" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="6.97265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.42578125" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2.0258025E8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>2.0258089E8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>2.0259079E8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>2.0253305E8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.0252042E8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.025962E8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2.0259861E8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2.0255799E8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2.0253183E8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2.0251384E8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="17.69921875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.83984375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="5.42578125" customWidth="true" bestFit="true"/>
   </cols>
@@ -390,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -398,7 +1056,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -406,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -421,7 +1079,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -429,16 +1087,16 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2.2225386E8</v>
+        <v>2.0264916E8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7">
@@ -446,16 +1104,16 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2.2225656E8</v>
+        <v>2.026863E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
@@ -463,16 +1121,16 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2.2227926E8</v>
+        <v>2.0267664E8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9">
@@ -480,16 +1138,118 @@
         <v>4.0</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>2.222567E8</v>
+        <v>2.0265721E8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>2.0264532E8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>2.0269215E8</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>2.0267582E8</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>2.026393E8</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>2.0265402E8</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>2.0263649E8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -497,19 +1257,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="29.81640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.08203125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.0859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.4609375" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.0703125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="5.42578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="5.4765625" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.62890625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -517,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
@@ -525,7 +1286,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -533,7 +1294,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
@@ -548,7 +1309,13 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -556,16 +1323,22 @@
         <v>1.0</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2.2225386E8</v>
+        <v>2.0193105E8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -573,16 +1346,22 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>2.2225656E8</v>
+        <v>2.01930485E8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -590,33 +1369,22 @@
         <v>3.0</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>2.2227926E8</v>
+        <v>2.01930859E8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>2.222567E8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
